--- a/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1065409942717916</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2798922429816862</v>
+        <v>0.2798922429816863</v>
       </c>
     </row>
     <row r="5">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09980105043017241</v>
+        <v>0.1561766818694874</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.101331513335545</v>
+        <v>0.1246910401139287</v>
       </c>
     </row>
     <row r="6">
@@ -749,7 +749,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.5408992612412943</v>
+        <v>0.528214684219771</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
@@ -759,17 +759,17 @@
         <v>0.7785196546737368</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7201084310297772</v>
+        <v>0.6802955991741683</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.6683708185363937</v>
+        <v>0.7054564738372805</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5062111466870066</v>
+        <v>0.4696100070130287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5073571144783823</v>
+        <v>0.5290206813835624</v>
       </c>
     </row>
     <row r="7">
@@ -843,7 +843,7 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.03994293116913283</v>
+        <v>0.04048891962696569</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03332312880136612</v>
+        <v>0.04655159660230113</v>
       </c>
     </row>
     <row r="9">
@@ -865,13 +865,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6377158667607939</v>
+        <v>0.6677822266022986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8181000100476878</v>
+        <v>0.8183969899369352</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3976191378695194</v>
+        <v>0.4425915954405562</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.4036604523587578</v>
+        <v>0.4115513896914212</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.6362639330185533</v>
+        <v>0.6361724358876193</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5883974079479003</v>
+        <v>0.6041081008447857</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3288999390349618</v>
+        <v>0.3300096611546499</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +913,7 @@
         <v>0.2230372509390402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2064197275687129</v>
+        <v>0.206419727568713</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5160537063574032</v>
@@ -925,7 +925,7 @@
         <v>0.4892469752363202</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09051659704205896</v>
+        <v>0.09051659704205893</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2206030653405367</v>
@@ -937,7 +937,7 @@
         <v>0.3323721661975153</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1377123816533014</v>
+        <v>0.1377123816533013</v>
       </c>
     </row>
     <row r="11">
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0655512526258053</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06315726744758597</v>
+        <v>0.05194528066376687</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -964,22 +964,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1418025198948833</v>
+        <v>0.1405581635234999</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02052748550800921</v>
+        <v>0.02240525040360887</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05754025136777357</v>
+        <v>0.05624415697165335</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1348261300970267</v>
+        <v>0.1404369505270213</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06929599054196499</v>
+        <v>0.06804099011184948</v>
       </c>
     </row>
     <row r="12">
@@ -991,37 +991,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.5876971684412111</v>
+        <v>0.6035844715429669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5330483242189833</v>
+        <v>0.4807970831930346</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4164021398325807</v>
+        <v>0.4150677012785414</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5839082825786303</v>
+        <v>0.5797373768136425</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8427804193368843</v>
+        <v>0.8430605455589077</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2077916888818284</v>
+        <v>0.2218598511297449</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5345818422602893</v>
+        <v>0.535611256977672</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.450344532889962</v>
+        <v>0.4133394313614747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5803846256313486</v>
+        <v>0.5799991838989145</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2584738716300152</v>
+        <v>0.2526070165270443</v>
       </c>
     </row>
     <row r="13">
@@ -1045,7 +1045,7 @@
         <v>0.1659548471056433</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1336691744046157</v>
+        <v>0.1336691744046158</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3096616171929072</v>
@@ -1080,40 +1080,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1267915021572393</v>
+        <v>0.1272613145443286</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1532788537283317</v>
+        <v>0.1547223340533671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.063251641043298</v>
+        <v>0.06349210917824752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06540567794527598</v>
+        <v>0.06878151848540286</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0603355491245113</v>
+        <v>0.05326335227446345</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07020817132710981</v>
+        <v>0.06384261519430769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1499147852971923</v>
+        <v>0.1487275958102595</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1363432471696716</v>
+        <v>0.1423607127229147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1696818628020879</v>
+        <v>0.1627174186073702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1038588285529254</v>
+        <v>0.09638740678725957</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1134226053921639</v>
+        <v>0.1184610083040804</v>
       </c>
     </row>
     <row r="15">
@@ -1124,40 +1124,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4500872282087071</v>
+        <v>0.4406311700258534</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.468535864728908</v>
+        <v>0.4884646646330124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3364151019819806</v>
+        <v>0.3324516856591835</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2390103333491849</v>
+        <v>0.2353146457578769</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.733766695694233</v>
+        <v>0.7471427368808512</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4707649503821625</v>
+        <v>0.4630338962014954</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5367856455819404</v>
+        <v>0.4960798167977262</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3815566067038388</v>
+        <v>0.3595903087990239</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4193639762758335</v>
+        <v>0.432062459705902</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4347785894665564</v>
+        <v>0.4156695707144092</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3452502855636243</v>
+        <v>0.3605111579861496</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2535438488191183</v>
+        <v>0.2520197451201577</v>
       </c>
     </row>
     <row r="16">
@@ -1193,7 +1193,7 @@
         <v>0.3065302961667469</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.190748923890508</v>
+        <v>0.1907489238905081</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2855002300507999</v>
@@ -1220,34 +1220,34 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.03257837315697891</v>
+        <v>0.0365159597971291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02621336472095614</v>
+        <v>0.02744329008941446</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1401583597759465</v>
+        <v>0.1397956712068812</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1903254860525324</v>
+        <v>0.1739550688038446</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1449953296829275</v>
+        <v>0.1394929843870729</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1346027952697064</v>
+        <v>0.1389911314815186</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1285296562351994</v>
+        <v>0.1347753950923923</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1540483428509672</v>
+        <v>0.1445743842605349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1328031329007092</v>
+        <v>0.1290850422298551</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1289537009066289</v>
+        <v>0.1282493611785512</v>
       </c>
     </row>
     <row r="18">
@@ -1258,38 +1258,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5192582817809076</v>
+        <v>0.4816950348306254</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.2990655024077541</v>
+        <v>0.3146325632543562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2458459306854289</v>
+        <v>0.2505666466004482</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6305323851154423</v>
+        <v>0.63754196327192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4343224198928863</v>
+        <v>0.4192614811958341</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4856869263241618</v>
+        <v>0.4760518666679833</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2515110468390087</v>
+        <v>0.2608980772453626</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5018805336408799</v>
+        <v>0.4772212721332019</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3465170155481251</v>
+        <v>0.3403816155539237</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3597749232594444</v>
+        <v>0.3579419172112944</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2358370931916237</v>
+        <v>0.2342213270740619</v>
       </c>
     </row>
     <row r="19">
@@ -1346,28 +1346,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.3306265114544771</v>
+        <v>0.3339099755066053</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1953425407846615</v>
+        <v>0.2066768621853618</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1620061658462689</v>
+        <v>0.1573173962735712</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1933966717379756</v>
+        <v>0.1989371653466662</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3306265114544771</v>
+        <v>0.3339099755066053</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1953425407846615</v>
+        <v>0.2066768621853618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1620061658462689</v>
+        <v>0.1573173962735712</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1983214608320985</v>
+        <v>0.1916776482842994</v>
       </c>
     </row>
     <row r="21">
@@ -1382,28 +1382,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.5956367414044891</v>
+        <v>0.6017170438930443</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3914847200281356</v>
+        <v>0.39473457210606</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3449134328203789</v>
+        <v>0.351625543291442</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.322694883974761</v>
+        <v>0.3273931657967692</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5956367414044891</v>
+        <v>0.6017170438930443</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3914847200281356</v>
+        <v>0.39473457210606</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3449134328203789</v>
+        <v>0.351625543291442</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3345127651250854</v>
+        <v>0.3133807836211779</v>
       </c>
     </row>
     <row r="22">
@@ -1462,40 +1462,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08730626287295198</v>
+        <v>0.08423223214632515</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2198942195441939</v>
+        <v>0.2178672390163996</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.193574384567023</v>
+        <v>0.1878640409790966</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1835185755484564</v>
+        <v>0.1851006648731338</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2102947176577534</v>
+        <v>0.2098377440978771</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1798889607300737</v>
+        <v>0.1845916023807038</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1649259806947652</v>
+        <v>0.1668999763082593</v>
       </c>
     </row>
     <row r="24">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2077574077594304</v>
+        <v>0.1984138724175384</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3534666971547021</v>
+        <v>0.3452558645420633</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3429369439160425</v>
+        <v>0.3449164402926251</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.260310793598529</v>
+        <v>0.2613856698627584</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3195022722814339</v>
+        <v>0.3198467723504798</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2937254555984552</v>
+        <v>0.2956634358718537</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2294836177825081</v>
+        <v>0.2294851743842327</v>
       </c>
     </row>
     <row r="25">
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>637</v>
+        <v>997</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1246</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>3198</v>
+        <v>3123</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
@@ -1863,17 +1863,17 @@
         <v>3801</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4599</v>
+        <v>4344</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>5001</v>
+        <v>5279</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5753</v>
+        <v>5337</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6239</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="8">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>621</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11">
@@ -2013,13 +2013,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4167</v>
+        <v>4364</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3556</v>
+        <v>3959</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -2027,17 +2027,17 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>3907</v>
+        <v>3983</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>6272</v>
+        <v>6271</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5505</v>
+        <v>5652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6125</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="12">
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>900</v>
+        <v>740</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2156,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2386</v>
+        <v>2485</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2425</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="15">
@@ -2183,37 +2183,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4169</v>
+        <v>4282</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5560</v>
+        <v>5015</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5933</v>
+        <v>5914</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>4473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6143</v>
+        <v>6099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6126</v>
+        <v>6128</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4310</v>
+        <v>4602</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5593</v>
+        <v>5604</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7933</v>
+        <v>7281</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10272</v>
+        <v>10265</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9045</v>
+        <v>8839</v>
       </c>
     </row>
     <row r="16">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3735</v>
+        <v>3749</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6516</v>
+        <v>6577</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3574</v>
+        <v>3759</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1099</v>
+        <v>970</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1535</v>
+        <v>1396</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4518</v>
+        <v>4482</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5019</v>
+        <v>5241</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10304</v>
+        <v>9881</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4831</v>
+        <v>4484</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9617</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="19">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13259</v>
+        <v>12980</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19917</v>
+        <v>20765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8296</v>
+        <v>8198</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13062</v>
+        <v>12860</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5396</v>
+        <v>5494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8575</v>
+        <v>8434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11734</v>
+        <v>10844</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11499</v>
+        <v>10837</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15438</v>
+        <v>15905</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>26402</v>
+        <v>25242</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16060</v>
+        <v>16770</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>21497</v>
+        <v>21368</v>
       </c>
     </row>
     <row r="20">
@@ -2500,34 +2500,34 @@
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12437</v>
+        <v>11367</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5186</v>
+        <v>4989</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12095</v>
+        <v>12490</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3535</v>
+        <v>3707</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12861</v>
+        <v>12070</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8159</v>
+        <v>7931</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14007</v>
+        <v>13931</v>
       </c>
     </row>
     <row r="23">
@@ -2538,38 +2538,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5320</v>
+        <v>4935</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>7678</v>
+        <v>8078</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4613</v>
+        <v>4701</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10884</v>
+        <v>11005</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28381</v>
+        <v>27397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17372</v>
+        <v>17027</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22601</v>
+        <v>23444</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13805</v>
+        <v>13126</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>28930</v>
+        <v>28418</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>22105</v>
+        <v>21992</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>25617</v>
+        <v>25442</v>
       </c>
     </row>
     <row r="24">
@@ -2670,28 +2670,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>19816</v>
+        <v>20013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>20240</v>
+        <v>21414</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15601</v>
+        <v>15149</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21822</v>
+        <v>22447</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>19816</v>
+        <v>20013</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>20240</v>
+        <v>21414</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>15601</v>
+        <v>15149</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22815</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="27">
@@ -2706,28 +2706,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>35699</v>
+        <v>36064</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40562</v>
+        <v>40899</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33214</v>
+        <v>33861</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36411</v>
+        <v>36941</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35699</v>
+        <v>36064</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>40562</v>
+        <v>40899</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>33214</v>
+        <v>33861</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38482</v>
+        <v>36051</v>
       </c>
     </row>
     <row r="28">
@@ -2830,40 +2830,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9143</v>
+        <v>8821</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>44919</v>
+        <v>44505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>33020</v>
+        <v>32045</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>49484</v>
+        <v>49910</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>59467</v>
+        <v>59338</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>43655</v>
+        <v>44796</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>61742</v>
+        <v>62481</v>
       </c>
     </row>
     <row r="31">
@@ -2874,37 +2874,37 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21757</v>
+        <v>20778</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>72204</v>
+        <v>70527</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>58497</v>
+        <v>58835</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>70190</v>
+        <v>70480</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>90349</v>
+        <v>90446</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>71280</v>
+        <v>71750</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>85910</v>
